--- a/data/trans_orig/P78_n_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{300D69E8-4E05-426D-8627-A380F0B4BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B724F787-A0C5-4464-8554-499CEB1234FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18B1B0F5-9DEF-48C1-93E0-28A6470DF6F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBFE5030-1507-4344-8EFA-A788E22B90C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="255">
   <si>
     <t>Población según número de retrasos en pagos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -287,514 +287,523 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,18%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>5,95%</t>
+    <t>5,77%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>4,15%</t>
+    <t>3,77%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>87,49%</t>
   </si>
   <si>
     <t>88,37%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803E2FD2-C311-4B0D-B728-366FFE1987AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E632926E-DEC7-4655-ADDA-EC97D8E61E5B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3407,7 +3416,7 @@
         <v>6511</v>
       </c>
       <c r="N44" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>15</v>
@@ -3458,7 +3467,7 @@
         <v>6511</v>
       </c>
       <c r="N45" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>17</v>
@@ -3493,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C13CF1-901A-4ED5-9B5A-42DA995F866A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC78756-DFDB-41E4-9007-A83913D8D7BB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5780,7 +5789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7166FE2-01E0-4E5A-B685-3861442DBA69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67591B96-18CE-46F8-98EA-91328FAA506A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8067,7 +8076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36274-7B0D-4735-B211-FBF455DDAC08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2986745B-A735-4693-8FEB-D37C0E63598E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8362,7 +8371,7 @@
         <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>84</v>
@@ -8377,7 +8386,7 @@
         <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>86</v>
@@ -8832,7 +8841,7 @@
         <v>1462</v>
       </c>
       <c r="N16" s="7">
-        <v>1045718</v>
+        <v>1045717</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>129</v>
@@ -8883,7 +8892,7 @@
         <v>1601</v>
       </c>
       <c r="N17" s="7">
-        <v>1158731</v>
+        <v>1158730</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
@@ -8930,7 +8939,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -8981,7 +8990,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -8996,7 +9005,7 @@
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9011,10 +9020,10 @@
         <v>6224</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>137</v>
@@ -9032,7 +9041,7 @@
         <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -9041,10 +9050,10 @@
         <v>9555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>140</v>
@@ -9065,7 +9074,7 @@
         <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>142</v>
@@ -9355,7 +9364,7 @@
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9376,7 +9385,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -9388,10 +9397,10 @@
         <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -9403,10 +9412,10 @@
         <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9421,13 +9430,13 @@
         <v>19956</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -9436,13 +9445,13 @@
         <v>17367</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -9451,13 +9460,13 @@
         <v>37323</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9472,13 +9481,13 @@
         <v>63015</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>59</v>
@@ -9487,13 +9496,13 @@
         <v>43658</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>114</v>
@@ -9502,13 +9511,13 @@
         <v>106672</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9523,13 +9532,13 @@
         <v>630494</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>953</v>
@@ -9538,13 +9547,13 @@
         <v>801260</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>1548</v>
@@ -9553,13 +9562,13 @@
         <v>1431754</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9648,7 +9657,7 @@
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9744,13 +9753,13 @@
         <v>1741</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9780,13 +9789,13 @@
         <v>30169</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -9795,13 +9804,13 @@
         <v>31958</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M35" s="7">
         <v>70</v>
@@ -9810,13 +9819,13 @@
         <v>62128</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9831,13 +9840,13 @@
         <v>116561</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>173</v>
@@ -9846,13 +9855,13 @@
         <v>140363</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>287</v>
@@ -9861,13 +9870,13 @@
         <v>256924</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9882,13 +9891,13 @@
         <v>807749</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>1333</v>
@@ -9897,13 +9906,13 @@
         <v>961047</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>2185</v>
@@ -9912,13 +9921,13 @@
         <v>1768795</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10001,13 +10010,13 @@
         <v>1425</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -10016,7 +10025,7 @@
         <v>1425</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
@@ -10055,10 +10064,10 @@
         <v>44</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -10070,10 +10079,10 @@
         <v>45</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10091,10 +10100,10 @@
         <v>33</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -10106,10 +10115,10 @@
         <v>70</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
@@ -10118,13 +10127,13 @@
         <v>16873</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10139,13 +10148,13 @@
         <v>96141</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H42" s="7">
         <v>121</v>
@@ -10154,13 +10163,13 @@
         <v>94914</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M42" s="7">
         <v>211</v>
@@ -10169,13 +10178,13 @@
         <v>191055</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10190,13 +10199,13 @@
         <v>289004</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H43" s="7">
         <v>422</v>
@@ -10205,13 +10214,13 @@
         <v>328207</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M43" s="7">
         <v>695</v>
@@ -10220,13 +10229,13 @@
         <v>617211</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10241,13 +10250,13 @@
         <v>2945226</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H44" s="7">
         <v>4762</v>
@@ -10256,13 +10265,13 @@
         <v>3354587</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="M44" s="7">
         <v>7737</v>
@@ -10271,13 +10280,13 @@
         <v>6299813</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P78_n_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B724F787-A0C5-4464-8554-499CEB1234FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E7A342D-2517-4900-A532-E4C89A1F668A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBFE5030-1507-4344-8EFA-A788E22B90C4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB94DC33-0DBB-4492-AC4E-2BE7BEF8FDAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -101,7 +101,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -122,7 +122,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -137,7 +137,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -227,7 +227,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>Población según número de retrasos en pagos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según número de retrasos en pagos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -1215,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E632926E-DEC7-4655-ADDA-EC97D8E61E5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0A1B67-5204-4311-862E-B58089ED7ECA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3386,7 +3386,7 @@
         <v>3214</v>
       </c>
       <c r="D44" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>15</v>
@@ -3437,7 +3437,7 @@
         <v>3214</v>
       </c>
       <c r="D45" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>17</v>
@@ -3502,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC78756-DFDB-41E4-9007-A83913D8D7BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B964DF24-A734-4C9C-AC25-ACA6E073BA52}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5789,7 +5789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67591B96-18CE-46F8-98EA-91328FAA506A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85F9060-4D87-47D6-9FC6-5DC3600208FF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8076,7 +8076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2986745B-A735-4693-8FEB-D37C0E63598E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD52F84-460D-4837-A941-5E7AF2AFDCDE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
